--- a/sprint_1_bd/H_HROADS/modelagens/projeto_HROADS_fisico.xlsx
+++ b/sprint_1_bd/H_HROADS/modelagens/projeto_HROADS_fisico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Werther\Documents\SENAI - 2\sprint_1_bd\H_HROADS\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FA6774-EE9F-4CFE-910E-7BC64EE2817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61696CF-32B7-4768-A476-CFF8EC9B5687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-45" windowWidth="28110" windowHeight="16440" xr2:uid="{BEC40227-204C-4514-9702-DD319E98F0FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>personagem</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>Cacadora de Demonios</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Erick</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -206,9 +212,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,33 +528,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA3039E-F344-429F-B884-785CF67FFEA4}">
-  <dimension ref="A3:U18"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,22 +576,8 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="P3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="T3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -609,32 +605,8 @@
       <c r="J4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -650,9 +622,6 @@
       <c r="E5" s="3">
         <v>44418</v>
       </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
@@ -665,35 +634,8 @@
       <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -709,9 +651,6 @@
       <c r="E6" s="3">
         <v>44418</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
       <c r="G6" s="2">
         <v>2</v>
       </c>
@@ -724,35 +663,8 @@
       <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6">
-        <v>7</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="2">
-        <v>1</v>
-      </c>
-      <c r="P6" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>2</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="2">
-        <v>2</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -768,9 +680,6 @@
       <c r="E7" s="3">
         <v>44418</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
       <c r="G7" s="2">
         <v>3</v>
       </c>
@@ -783,35 +692,8 @@
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7">
-        <v>8</v>
-      </c>
-      <c r="L7" s="2">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="2">
-        <v>3</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -827,9 +709,6 @@
       <c r="E8" s="3">
         <v>44418</v>
       </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
       <c r="G8" s="2">
         <v>4</v>
       </c>
@@ -842,29 +721,8 @@
       <c r="J8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8">
-        <v>9</v>
-      </c>
-      <c r="L8" s="2">
-        <v>4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2</v>
-      </c>
-      <c r="T8" s="2">
-        <v>4</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" s="2">
         <v>5</v>
       </c>
@@ -877,23 +735,8 @@
       <c r="J9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2">
-        <v>5</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="2">
         <v>6</v>
       </c>
@@ -906,23 +749,8 @@
       <c r="J10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10" s="2">
-        <v>6</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N10" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F11">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" s="2">
         <v>7</v>
       </c>
@@ -935,75 +763,249 @@
       <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K11">
-        <v>12</v>
-      </c>
-      <c r="L11" s="2">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="2">
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="2">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>3</v>
       </c>
-      <c r="N11" s="2">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2">
+        <v>4</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K12">
-        <v>13</v>
-      </c>
-      <c r="L12" s="2">
+      <c r="B21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="M12" s="2">
-        <v>2</v>
-      </c>
-      <c r="N12" s="2">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="K13">
-        <v>14</v>
-      </c>
-      <c r="L13" s="2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>9</v>
       </c>
-      <c r="M13" s="2">
-        <v>1</v>
-      </c>
-      <c r="N13" s="2">
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="6" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C29" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="E15:G15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>